--- a/Lecture19_Fwi/executiontimes.xlsx
+++ b/Lecture19_Fwi/executiontimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilio/Library/CloudStorage/Box-Box/GitHub/WaveformInversionUST/Lecture19_Fwi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86308B1-0D5C-284F-BE9A-7CBDFDC7EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F410D1C6-B7F8-B643-B119-52933E9E129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="16980" xr2:uid="{F0C2851A-1B43-8A47-8796-FF367F9A005B}"/>
   </bookViews>
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,11 +144,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +177,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -198,6 +217,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan execution times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,7 +255,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -289,7 +333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$P$11</c:f>
+              <c:f>Sheet1!$F$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -352,6 +396,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -374,7 +473,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -400,6 +499,8 @@
         <c:axId val="2080297952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -417,6 +518,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -433,7 +589,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -484,7 +640,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1058,15 +1214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1411,306 +1567,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0A6E31-79F0-1B47-BD3C-982792027409}">
-  <dimension ref="C3:XFD12"/>
+  <dimension ref="C3:XFD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="15" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>9</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2">
+        <f>F8-F7</f>
+        <v>24.64</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:O5" si="0">G8-G7</f>
+        <v>10.360000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4300000000000015</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>10.290000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7399999999999967</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2500000000000018</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>10.780000000000003</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.319999999999995</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="0"/>
+        <v>10.820000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="XFD6" s="6"/>
     </row>
     <row r="7" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.28</v>
       </c>
     </row>
     <row r="8" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8">
-        <f>F11-F10</f>
-        <v>24.64</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:P8" si="0">G11-G10</f>
-        <v>10.360000000000001</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>9.4300000000000015</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>10.290000000000001</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>8.7399999999999967</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>9.2500000000000018</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>10.780000000000003</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>9.319999999999995</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>10.820000000000009</v>
+      <c r="F8" s="2">
+        <v>25.92</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G9-F8</f>
+        <v>11.64</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H9-G9</f>
+        <v>10.71</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I9-H9</f>
+        <v>10.75</v>
+      </c>
+      <c r="J8" s="2">
+        <f>J9-I9</f>
+        <v>11.57</v>
+      </c>
+      <c r="K8" s="2">
+        <f>K9-J9</f>
+        <v>10.019999999999996</v>
+      </c>
+      <c r="L8" s="2">
+        <f>L9-K9</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <f>M9-L9</f>
+        <v>12.060000000000002</v>
+      </c>
+      <c r="N8" s="2">
+        <f>N9-M9</f>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="O8" s="2">
+        <f>O9-N9</f>
+        <v>12.100000000000009</v>
       </c>
     </row>
     <row r="9" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="XFD9" s="6"/>
-    </row>
-    <row r="10" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>1.28</v>
-      </c>
-      <c r="G10">
-        <v>1.28</v>
-      </c>
-      <c r="H10">
-        <v>1.28</v>
-      </c>
-      <c r="I10">
-        <v>1.28</v>
-      </c>
-      <c r="J10">
-        <v>1.28</v>
-      </c>
-      <c r="K10">
-        <v>1.28</v>
-      </c>
-      <c r="L10">
-        <v>1.28</v>
-      </c>
-      <c r="M10">
-        <v>1.28</v>
-      </c>
-      <c r="N10">
-        <v>1.28</v>
-      </c>
-      <c r="O10">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11">
-        <v>25.92</v>
-      </c>
-      <c r="G11">
-        <f>G12-F11</f>
-        <v>11.64</v>
-      </c>
-      <c r="H11">
-        <f>H12-G12</f>
-        <v>10.71</v>
-      </c>
-      <c r="I11">
-        <f>I12-H12</f>
-        <v>10.75</v>
-      </c>
-      <c r="J11">
-        <f>J12-I12</f>
-        <v>11.57</v>
-      </c>
-      <c r="K11">
-        <f>K12-J12</f>
-        <v>10.019999999999996</v>
-      </c>
-      <c r="L11">
-        <f>L12-K12</f>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="M11">
-        <f>M12-L12</f>
-        <v>12.060000000000002</v>
-      </c>
-      <c r="N11">
-        <f>N12-M12</f>
-        <v>10.599999999999994</v>
-      </c>
-      <c r="O11">
-        <f>O12-N12</f>
-        <v>12.100000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16 16384:16384" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
         <v>25.99</v>
       </c>
-      <c r="G12">
+      <c r="G9" s="2">
         <v>37.56</v>
       </c>
-      <c r="H12">
+      <c r="H9" s="2">
         <v>48.27</v>
       </c>
-      <c r="I12">
+      <c r="I9" s="2">
         <v>59.02</v>
       </c>
-      <c r="J12">
+      <c r="J9" s="2">
         <v>70.59</v>
       </c>
-      <c r="K12">
+      <c r="K9" s="2">
         <v>80.61</v>
       </c>
-      <c r="L12">
+      <c r="L9" s="2">
         <v>91.14</v>
       </c>
-      <c r="M12">
+      <c r="M9" s="2">
         <v>103.2</v>
       </c>
-      <c r="N12">
+      <c r="N9" s="2">
         <v>113.8</v>
       </c>
-      <c r="O12">
+      <c r="O9" s="2">
         <v>125.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
